--- a/documentacion/PREGUNTARJETAS/primero/Claves primero.xlsx
+++ b/documentacion/PREGUNTARJETAS/primero/Claves primero.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Billy\Desktop\MATLABAPP\PREGUNTARJETAS\primero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MatLapp\documentacion\PREGUNTARJETAS\primero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48135D34-C7C6-47E2-B103-E78095E19A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Numeros" sheetId="1" r:id="rId1"/>
@@ -778,7 +777,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m\-yy;@"/>
   </numFmts>
@@ -860,7 +859,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1D1A899A-4453-4ED6-A13D-4EECC32E01A5}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -7013,11 +7012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="B49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,7 +7182,7 @@
         <v>46</v>
       </c>
       <c r="L14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N14" s="1">
         <v>9</v>
@@ -7619,11 +7618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N199"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="I65" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10165,11 +10164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N63"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="I54" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10739,11 +10738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11313,7 +11312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N63"/>
   <sheetViews>
     <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
